--- a/ref_grid.xlsx
+++ b/ref_grid.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Documents\GitHub\A10v3rl0rd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Python (D)\A10v3rl0rd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36C54218-87E7-4074-AFA3-C85603318BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21ABC7AD-EEBF-42B2-ADE0-B3FB4E335E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FD3B1D95-5E2F-4D48-A7E1-2FC59006E9BF}"/>
+    <workbookView xWindow="22944" yWindow="0" windowWidth="23232" windowHeight="25296" xr2:uid="{FD3B1D95-5E2F-4D48-A7E1-2FC59006E9BF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="JOINS" sheetId="1" r:id="rId1"/>
+    <sheet name="BLANKS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,6 +36,41 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -46,12 +82,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,9 +108,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -385,15 +430,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63780AEE-71AD-4FC2-9A97-687AC46DE724}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2:J43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>0</v>
@@ -413,344 +461,1018 @@
       <c r="G1" s="1">
         <v>5</v>
       </c>
-      <c r="H1" s="1">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="str">
-        <f>"("&amp;$A2&amp;","&amp;B$1&amp;")"</f>
-        <v>(0,0)</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f>"("&amp;$A2&amp;","&amp;C$1&amp;")"</f>
-        <v>(0,1)</v>
-      </c>
-      <c r="D2" s="1" t="str">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="str">
         <f>"("&amp;$A2&amp;","&amp;D$1&amp;")"</f>
         <v>(0,2)</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <f>"("&amp;$A2&amp;","&amp;E$1&amp;")"</f>
         <v>(0,3)</v>
       </c>
-      <c r="F2" s="1" t="str">
-        <f>"("&amp;$A2&amp;","&amp;F$1&amp;")"</f>
-        <v>(0,4)</v>
-      </c>
-      <c r="G2" s="1" t="str">
-        <f>"("&amp;$A2&amp;","&amp;G$1&amp;")"</f>
-        <v>(0,5)</v>
-      </c>
-      <c r="H2" s="1" t="str">
-        <f>"("&amp;$A2&amp;","&amp;H$1&amp;")"</f>
-        <v>(0,6)</v>
-      </c>
-      <c r="I2" s="1" t="str">
-        <f>"("&amp;$A2&amp;","&amp;I$1&amp;")"</f>
-        <v>(0,7)</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="str">
+        <f>"["&amp;_xlfn.TEXTJOIN(",", TRUE, B2:G7)&amp;"]"</f>
+        <v>[(0,2),(0,3),(2,0),(2,5),(3,0),(3,5),(5,2),(5,3)]</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="str">
-        <f>"("&amp;$A3&amp;","&amp;B$1&amp;")"</f>
-        <v>(1,0)</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <f>"("&amp;$A3&amp;","&amp;C$1&amp;")"</f>
-        <v>(1,1)</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <f>"("&amp;$A3&amp;","&amp;D$1&amp;")"</f>
-        <v>(1,2)</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <f>"("&amp;$A3&amp;","&amp;E$1&amp;")"</f>
-        <v>(1,3)</v>
-      </c>
-      <c r="F3" s="1" t="str">
-        <f>"("&amp;$A3&amp;","&amp;F$1&amp;")"</f>
-        <v>(1,4)</v>
-      </c>
-      <c r="G3" s="1" t="str">
-        <f>"("&amp;$A3&amp;","&amp;G$1&amp;")"</f>
-        <v>(1,5)</v>
-      </c>
-      <c r="H3" s="1" t="str">
-        <f>"("&amp;$A3&amp;","&amp;H$1&amp;")"</f>
-        <v>(1,6)</v>
-      </c>
-      <c r="I3" s="1" t="str">
-        <f>"("&amp;$A3&amp;","&amp;I$1&amp;")"</f>
-        <v>(1,7)</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <f>"("&amp;$A4&amp;","&amp;B$1&amp;")"</f>
         <v>(2,0)</v>
       </c>
-      <c r="C4" s="1" t="str">
-        <f>"("&amp;$A4&amp;","&amp;C$1&amp;")"</f>
-        <v>(2,1)</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f>"("&amp;$A4&amp;","&amp;D$1&amp;")"</f>
-        <v>(2,2)</v>
-      </c>
-      <c r="E4" s="1" t="str">
-        <f>"("&amp;$A4&amp;","&amp;E$1&amp;")"</f>
-        <v>(2,3)</v>
-      </c>
-      <c r="F4" s="1" t="str">
-        <f>"("&amp;$A4&amp;","&amp;F$1&amp;")"</f>
-        <v>(2,4)</v>
-      </c>
-      <c r="G4" s="1" t="str">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="str">
         <f>"("&amp;$A4&amp;","&amp;G$1&amp;")"</f>
         <v>(2,5)</v>
       </c>
-      <c r="H4" s="1" t="str">
-        <f>"("&amp;$A4&amp;","&amp;H$1&amp;")"</f>
-        <v>(2,6)</v>
-      </c>
-      <c r="I4" s="1" t="str">
-        <f>"("&amp;$A4&amp;","&amp;I$1&amp;")"</f>
-        <v>(2,7)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <f>"("&amp;$A5&amp;","&amp;B$1&amp;")"</f>
         <v>(3,0)</v>
       </c>
-      <c r="C5" s="1" t="str">
-        <f>"("&amp;$A5&amp;","&amp;C$1&amp;")"</f>
-        <v>(3,1)</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <f>"("&amp;$A5&amp;","&amp;D$1&amp;")"</f>
-        <v>(3,2)</v>
-      </c>
-      <c r="E5" s="1" t="str">
-        <f>"("&amp;$A5&amp;","&amp;E$1&amp;")"</f>
-        <v>(3,3)</v>
-      </c>
-      <c r="F5" s="1" t="str">
-        <f>"("&amp;$A5&amp;","&amp;F$1&amp;")"</f>
-        <v>(3,4)</v>
-      </c>
-      <c r="G5" s="1" t="str">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="str">
         <f>"("&amp;$A5&amp;","&amp;G$1&amp;")"</f>
         <v>(3,5)</v>
       </c>
-      <c r="H5" s="1" t="str">
-        <f>"("&amp;$A5&amp;","&amp;H$1&amp;")"</f>
-        <v>(3,6)</v>
-      </c>
-      <c r="I5" s="1" t="str">
-        <f>"("&amp;$A5&amp;","&amp;I$1&amp;")"</f>
-        <v>(3,7)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="str">
-        <f>"("&amp;$A6&amp;","&amp;B$1&amp;")"</f>
-        <v>(4,0)</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <f>"("&amp;$A6&amp;","&amp;C$1&amp;")"</f>
-        <v>(4,1)</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f>"("&amp;$A6&amp;","&amp;D$1&amp;")"</f>
-        <v>(4,2)</v>
-      </c>
-      <c r="E6" s="1" t="str">
-        <f>"("&amp;$A6&amp;","&amp;E$1&amp;")"</f>
-        <v>(4,3)</v>
-      </c>
-      <c r="F6" s="1" t="str">
-        <f>"("&amp;$A6&amp;","&amp;F$1&amp;")"</f>
-        <v>(4,4)</v>
-      </c>
-      <c r="G6" s="1" t="str">
-        <f>"("&amp;$A6&amp;","&amp;G$1&amp;")"</f>
-        <v>(4,5)</v>
-      </c>
-      <c r="H6" s="1" t="str">
-        <f>"("&amp;$A6&amp;","&amp;H$1&amp;")"</f>
-        <v>(4,6)</v>
-      </c>
-      <c r="I6" s="1" t="str">
-        <f>"("&amp;$A6&amp;","&amp;I$1&amp;")"</f>
-        <v>(4,7)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="str">
-        <f>"("&amp;$A7&amp;","&amp;B$1&amp;")"</f>
-        <v>(5,0)</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <f>"("&amp;$A7&amp;","&amp;C$1&amp;")"</f>
-        <v>(5,1)</v>
-      </c>
-      <c r="D7" s="1" t="str">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="str">
         <f>"("&amp;$A7&amp;","&amp;D$1&amp;")"</f>
         <v>(5,2)</v>
       </c>
-      <c r="E7" s="1" t="str">
+      <c r="E7" s="2" t="str">
         <f>"("&amp;$A7&amp;","&amp;E$1&amp;")"</f>
         <v>(5,3)</v>
       </c>
-      <c r="F7" s="1" t="str">
-        <f>"("&amp;$A7&amp;","&amp;F$1&amp;")"</f>
-        <v>(5,4)</v>
-      </c>
-      <c r="G7" s="1" t="str">
-        <f>"("&amp;$A7&amp;","&amp;G$1&amp;")"</f>
-        <v>(5,5)</v>
-      </c>
-      <c r="H7" s="1" t="str">
-        <f>"("&amp;$A7&amp;","&amp;H$1&amp;")"</f>
-        <v>(5,6)</v>
-      </c>
-      <c r="I7" s="1" t="str">
-        <f>"("&amp;$A7&amp;","&amp;I$1&amp;")"</f>
-        <v>(5,7)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>"("&amp;$A9&amp;","&amp;B$1&amp;")"</f>
+        <v>(0,0)</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f>"("&amp;$A9&amp;","&amp;C$1&amp;")"</f>
+        <v>(0,1)</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="I9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" t="str">
+        <f>"["&amp;_xlfn.TEXTJOIN(",", TRUE, B9:G12)&amp;"]"</f>
+        <v>[(0,0),(0,1),(2,3),(3,3)]</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="str">
+        <f>"("&amp;$A11&amp;","&amp;E$1&amp;")"</f>
+        <v>(2,3)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="str">
+        <f>"("&amp;$A12&amp;","&amp;E$1&amp;")"</f>
+        <v>(3,3)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="str">
+        <f>"("&amp;$A14&amp;","&amp;C$1&amp;")"</f>
+        <v>(0,1)</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f>"("&amp;$A14&amp;","&amp;D$1&amp;")"</f>
+        <v>(0,2)</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="I14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" t="str">
+        <f>"["&amp;_xlfn.TEXTJOIN(",", TRUE, B14:G17)&amp;"]"</f>
+        <v>[(0,1),(0,2),(1,0),(1,3),(2,0),(2,3),(3,1),(3,2)]</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"("&amp;$A15&amp;","&amp;B$1&amp;")"</f>
+        <v>(1,0)</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="str">
+        <f>"("&amp;$A15&amp;","&amp;E$1&amp;")"</f>
+        <v>(1,3)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"("&amp;$A16&amp;","&amp;B$1&amp;")"</f>
+        <v>(2,0)</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="str">
+        <f>"("&amp;$A16&amp;","&amp;E$1&amp;")"</f>
+        <v>(2,3)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="str">
+        <f>"("&amp;$A17&amp;","&amp;C$1&amp;")"</f>
+        <v>(3,1)</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f>"("&amp;$A17&amp;","&amp;D$1&amp;")"</f>
+        <v>(3,2)</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="str">
+        <f>"("&amp;$A19&amp;","&amp;D$1&amp;")"</f>
+        <v>(0,2)</v>
+      </c>
+      <c r="E19" s="2" t="str">
+        <f>"("&amp;$A19&amp;","&amp;E$1&amp;")"</f>
+        <v>(0,3)</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="I19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" t="str">
+        <f>"["&amp;_xlfn.TEXTJOIN(",", TRUE, B19:G22)&amp;"]"</f>
+        <v>[(0,2),(0,3),(1,0),(1,5),(2,0),(2,5),(3,2),(3,3)]</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>"("&amp;$A20&amp;","&amp;B$1&amp;")"</f>
+        <v>(1,0)</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="str">
+        <f>"("&amp;$A20&amp;","&amp;G$1&amp;")"</f>
+        <v>(1,5)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>"("&amp;$A21&amp;","&amp;B$1&amp;")"</f>
+        <v>(2,0)</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2" t="str">
+        <f>"("&amp;$A21&amp;","&amp;G$1&amp;")"</f>
+        <v>(2,5)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="str">
+        <f>"("&amp;$A22&amp;","&amp;D$1&amp;")"</f>
+        <v>(3,2)</v>
+      </c>
+      <c r="E22" s="2" t="str">
+        <f>"("&amp;$A22&amp;","&amp;E$1&amp;")"</f>
+        <v>(3,3)</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f>"("&amp;$A24&amp;","&amp;B$1&amp;")"</f>
+        <v>(0,0)</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="str">
+        <f>"("&amp;$A24&amp;","&amp;E$1&amp;")"</f>
+        <v>(0,3)</v>
+      </c>
+      <c r="I24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" t="str">
+        <f>"["&amp;_xlfn.TEXTJOIN(",", TRUE, B24:G27)&amp;"]"</f>
+        <v>[(0,0),(0,3),(1,0),(1,3),(3,1),(3,2)]</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f>"("&amp;$A25&amp;","&amp;B$1&amp;")"</f>
+        <v>(1,0)</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="str">
+        <f>"("&amp;$A25&amp;","&amp;E$1&amp;")"</f>
+        <v>(1,3)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="2" t="str">
+        <f>"("&amp;$A27&amp;","&amp;C$1&amp;")"</f>
+        <v>(3,1)</v>
+      </c>
+      <c r="D27" s="2" t="str">
+        <f>"("&amp;$A27&amp;","&amp;D$1&amp;")"</f>
+        <v>(3,2)</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="2" t="str">
+        <f>"("&amp;$A29&amp;","&amp;C$1&amp;")"</f>
+        <v>(0,1)</v>
+      </c>
+      <c r="D29" s="2" t="str">
+        <f>"("&amp;$A29&amp;","&amp;D$1&amp;")"</f>
+        <v>(0,2)</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="I29" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" t="str">
+        <f>"["&amp;_xlfn.TEXTJOIN(",", TRUE, B29:G32)&amp;"]"</f>
+        <v>[(0,1),(0,2),(1,0),(1,3),(2,0),(2,3),(3,1),(3,2)]</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="str">
+        <f>"("&amp;$A30&amp;","&amp;B$1&amp;")"</f>
+        <v>(1,0)</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="str">
+        <f>"("&amp;$A30&amp;","&amp;E$1&amp;")"</f>
+        <v>(1,3)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2" t="str">
+        <f>"("&amp;$A31&amp;","&amp;B$1&amp;")"</f>
+        <v>(2,0)</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2" t="str">
+        <f>"("&amp;$A31&amp;","&amp;E$1&amp;")"</f>
+        <v>(2,3)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>3</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="2" t="str">
+        <f>"("&amp;$A32&amp;","&amp;C$1&amp;")"</f>
+        <v>(3,1)</v>
+      </c>
+      <c r="D32" s="2" t="str">
+        <f>"("&amp;$A32&amp;","&amp;D$1&amp;")"</f>
+        <v>(3,2)</v>
+      </c>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2" t="str">
+        <f>"("&amp;$A34&amp;","&amp;B$1&amp;")"</f>
+        <v>(0,0)</v>
+      </c>
+      <c r="C34" s="2" t="str">
+        <f>"("&amp;$A34&amp;","&amp;C$1&amp;")"</f>
+        <v>(0,1)</v>
+      </c>
+      <c r="I34" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="str">
-        <f>"("&amp;$A8&amp;","&amp;B$1&amp;")"</f>
-        <v>(6,0)</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <f>"("&amp;$A8&amp;","&amp;C$1&amp;")"</f>
-        <v>(6,1)</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <f>"("&amp;$A8&amp;","&amp;D$1&amp;")"</f>
-        <v>(6,2)</v>
-      </c>
-      <c r="E8" s="1" t="str">
-        <f>"("&amp;$A8&amp;","&amp;E$1&amp;")"</f>
-        <v>(6,3)</v>
-      </c>
-      <c r="F8" s="1" t="str">
-        <f>"("&amp;$A8&amp;","&amp;F$1&amp;")"</f>
-        <v>(6,4)</v>
-      </c>
-      <c r="G8" s="1" t="str">
-        <f>"("&amp;$A8&amp;","&amp;G$1&amp;")"</f>
-        <v>(6,5)</v>
-      </c>
-      <c r="H8" s="1" t="str">
-        <f>"("&amp;$A8&amp;","&amp;H$1&amp;")"</f>
-        <v>(6,6)</v>
-      </c>
-      <c r="I8" s="1" t="str">
-        <f>"("&amp;$A8&amp;","&amp;I$1&amp;")"</f>
-        <v>(6,7)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J34" t="str">
+        <f>"["&amp;_xlfn.TEXTJOIN(",", TRUE, B34:G35)&amp;"]"</f>
+        <v>[(0,0),(0,1),(1,0),(1,1)]</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2" t="str">
+        <f>"("&amp;$A35&amp;","&amp;B$1&amp;")"</f>
+        <v>(1,0)</v>
+      </c>
+      <c r="C35" s="2" t="str">
+        <f>"("&amp;$A35&amp;","&amp;C$1&amp;")"</f>
+        <v>(1,1)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2" t="str">
+        <f>"("&amp;$A37&amp;","&amp;B$1&amp;")"</f>
+        <v>(0,0)</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="str">
+        <f>"("&amp;$A37&amp;","&amp;E$1&amp;")"</f>
+        <v>(0,3)</v>
+      </c>
+      <c r="I37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" t="str">
+        <f>"["&amp;_xlfn.TEXTJOIN(",", TRUE, B37:G38)&amp;"]"</f>
+        <v>[(0,0),(0,3),(1,0),(1,3)]</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2" t="str">
+        <f>"("&amp;$A38&amp;","&amp;B$1&amp;")"</f>
+        <v>(1,0)</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="str">
+        <f>"("&amp;$A38&amp;","&amp;E$1&amp;")"</f>
+        <v>(1,3)</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>0</v>
+      </c>
+      <c r="B40" s="2" t="str">
+        <f>"("&amp;$A40&amp;","&amp;B$1&amp;")"</f>
+        <v>(0,0)</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2" t="str">
+        <f t="shared" ref="G40:G41" si="0">"("&amp;$A40&amp;","&amp;G$1&amp;")"</f>
+        <v>(0,5)</v>
+      </c>
+      <c r="I40" t="s">
+        <v>8</v>
+      </c>
+      <c r="J40" t="str">
+        <f>"["&amp;_xlfn.TEXTJOIN(",", TRUE, B40:G41)&amp;"]"</f>
+        <v>[(0,0),(0,5),(1,0),(1,5)]</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="B41" s="2" t="str">
+        <f>"("&amp;$A41&amp;","&amp;B$1&amp;")"</f>
+        <v>(1,0)</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,5)</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>0</v>
+      </c>
+      <c r="B43" s="2" t="str">
+        <f>"("&amp;$A43&amp;","&amp;B$1&amp;")"</f>
+        <v>(0,0)</v>
+      </c>
+      <c r="C43" s="2" t="str">
+        <f>"("&amp;$A43&amp;","&amp;C$1&amp;")"</f>
+        <v>(0,1)</v>
+      </c>
+      <c r="I43" t="s">
+        <v>9</v>
+      </c>
+      <c r="J43" t="str">
+        <f>"["&amp;_xlfn.TEXTJOIN(",", TRUE, B43:G44)&amp;"]"</f>
+        <v>[(0,0),(0,1)]</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E484C7F-3B0F-4313-91A4-6AD9F491BFDB}">
+  <dimension ref="A1:J43"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="str">
+        <f>"["&amp;_xlfn.TEXTJOIN(",", TRUE, B2:G7)&amp;"]"</f>
+        <v>[]</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="str">
-        <f>"("&amp;$A9&amp;","&amp;B$1&amp;")"</f>
-        <v>(7,0)</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <f>"("&amp;$A9&amp;","&amp;C$1&amp;")"</f>
-        <v>(7,1)</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="1" t="str">
         <f>"("&amp;$A9&amp;","&amp;D$1&amp;")"</f>
-        <v>(7,2)</v>
+        <v>(0,2)</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f>"("&amp;$A9&amp;","&amp;E$1&amp;")"</f>
-        <v>(7,3)</v>
-      </c>
-      <c r="F9" s="1" t="str">
-        <f>"("&amp;$A9&amp;","&amp;F$1&amp;")"</f>
-        <v>(7,4)</v>
-      </c>
-      <c r="G9" s="1" t="str">
-        <f>"("&amp;$A9&amp;","&amp;G$1&amp;")"</f>
-        <v>(7,5)</v>
-      </c>
-      <c r="H9" s="1" t="str">
-        <f>"("&amp;$A9&amp;","&amp;H$1&amp;")"</f>
-        <v>(7,6)</v>
-      </c>
-      <c r="I9" s="1" t="str">
-        <f>"("&amp;$A9&amp;","&amp;I$1&amp;")"</f>
-        <v>(7,7)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <f t="shared" ref="E9:E10" si="0">"("&amp;$A9&amp;","&amp;E$1&amp;")"</f>
+        <v>(0,3)</v>
+      </c>
+      <c r="I9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" t="str">
+        <f>"["&amp;_xlfn.TEXTJOIN(",", TRUE, B9:G12)&amp;"]"</f>
+        <v>[(0,2),(0,3),(1,2),(1,3)]</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1" t="str">
+        <f t="shared" ref="D10" si="1">"("&amp;$A10&amp;","&amp;D$1&amp;")"</f>
+        <v>(1,2)</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,3)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="I14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" t="str">
+        <f>"["&amp;_xlfn.TEXTJOIN(",", TRUE, B14:G17)&amp;"]"</f>
+        <v>[]</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="I19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" t="str">
+        <f>"["&amp;_xlfn.TEXTJOIN(",", TRUE, B19:G22)&amp;"]"</f>
+        <v>[]</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="I24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" t="str">
+        <f>"["&amp;_xlfn.TEXTJOIN(",", TRUE, B24:G27)&amp;"]"</f>
+        <v>[(2,0),(2,3),(3,0),(3,3)]</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <f t="shared" ref="B26:B27" si="2">"("&amp;$A26&amp;","&amp;B$1&amp;")"</f>
+        <v>(2,0)</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="1" t="str">
+        <f t="shared" ref="E26:E27" si="3">"("&amp;$A26&amp;","&amp;E$1&amp;")"</f>
+        <v>(2,3)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>(3,0)</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>(3,3)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <f>"("&amp;$A29&amp;","&amp;B$1&amp;")"</f>
+        <v>(0,0)</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="1" t="str">
+        <f>"("&amp;$A29&amp;","&amp;E$1&amp;")"</f>
+        <v>(0,3)</v>
+      </c>
+      <c r="I29" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" t="str">
+        <f>"["&amp;_xlfn.TEXTJOIN(",", TRUE, B29:G32)&amp;"]"</f>
+        <v>[(0,0),(0,3),(3,0),(3,3)]</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>3</v>
+      </c>
+      <c r="B32" s="1" t="str">
+        <f>"("&amp;$A32&amp;","&amp;B$1&amp;")"</f>
+        <v>(3,0)</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="1" t="str">
+        <f>"("&amp;$A32&amp;","&amp;E$1&amp;")"</f>
+        <v>(3,3)</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="I34" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" t="str">
+        <f>"["&amp;_xlfn.TEXTJOIN(",", TRUE, B34:G37)&amp;"]"</f>
+        <v>[]</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="I37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" t="str">
+        <f>"["&amp;_xlfn.TEXTJOIN(",", TRUE, B37:G40)&amp;"]"</f>
+        <v>[]</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>0</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="I40" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="str">
-        <f>"("&amp;$A10&amp;","&amp;B$1&amp;")"</f>
-        <v>(8,0)</v>
-      </c>
-      <c r="C10" s="1" t="str">
-        <f>"("&amp;$A10&amp;","&amp;C$1&amp;")"</f>
-        <v>(8,1)</v>
-      </c>
-      <c r="D10" s="1" t="str">
-        <f>"("&amp;$A10&amp;","&amp;D$1&amp;")"</f>
-        <v>(8,2)</v>
-      </c>
-      <c r="E10" s="1" t="str">
-        <f>"("&amp;$A10&amp;","&amp;E$1&amp;")"</f>
-        <v>(8,3)</v>
-      </c>
-      <c r="F10" s="1" t="str">
-        <f>"("&amp;$A10&amp;","&amp;F$1&amp;")"</f>
-        <v>(8,4)</v>
-      </c>
-      <c r="G10" s="1" t="str">
-        <f>"("&amp;$A10&amp;","&amp;G$1&amp;")"</f>
-        <v>(8,5)</v>
-      </c>
-      <c r="H10" s="1" t="str">
-        <f>"("&amp;$A10&amp;","&amp;H$1&amp;")"</f>
-        <v>(8,6)</v>
-      </c>
-      <c r="I10" s="1" t="str">
-        <f>"("&amp;$A10&amp;","&amp;I$1&amp;")"</f>
-        <v>(8,7)</v>
+      <c r="J40" t="str">
+        <f>"["&amp;_xlfn.TEXTJOIN(",", TRUE, B40:G43)&amp;"]"</f>
+        <v>[]</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>0</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="I43" t="s">
+        <v>9</v>
+      </c>
+      <c r="J43" t="str">
+        <f>"["&amp;_xlfn.TEXTJOIN(",", TRUE, B43:G46)&amp;"]"</f>
+        <v>[]</v>
       </c>
     </row>
   </sheetData>
